--- a/Test Case - Try Testing This.xlsx
+++ b/Test Case - Try Testing This.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\Cypress\CypressProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D218EA0-C708-4120-B90A-E66369131FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845D080-2BD0-4412-BE79-9E828360C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{415DAA5F-16FF-4E03-9D24-C543D875EBD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="elements.cy.js" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>TC_001</t>
   </si>
   <si>
-    <t>Verify that the form takes Firstname and Lastname as input.</t>
-  </si>
-  <si>
     <t>TC_002</t>
   </si>
   <si>
@@ -87,33 +84,6 @@
     <t>TC_014</t>
   </si>
   <si>
-    <t>Verify radio button functionality for gender selection.</t>
-  </si>
-  <si>
-    <t>Verify that only one gender can be selected from gender options.</t>
-  </si>
-  <si>
-    <t>Verify that "Option" dropdown loads valid options.</t>
-  </si>
-  <si>
-    <t>Verify Checkbox functionality for applicable Options.</t>
-  </si>
-  <si>
-    <t>Verify that multiple options can be checked for applicable Options.</t>
-  </si>
-  <si>
-    <t>Verify that datalist input dropdown shows valid suggestions.</t>
-  </si>
-  <si>
-    <t>Verify that partially given input is guessed correctly in Datalist.</t>
-  </si>
-  <si>
-    <t>Verify that input RGB values are accepted for picking color.</t>
-  </si>
-  <si>
-    <t>Verify date picker functionality.</t>
-  </si>
-  <si>
     <t>TC_015</t>
   </si>
   <si>
@@ -147,54 +117,12 @@
     <t>TC_025</t>
   </si>
   <si>
-    <t>Verify that range slider accepts values from 0 to 100 (slide between left-right)</t>
-  </si>
-  <si>
-    <t>Verify file upload functionality of the form.</t>
-  </si>
-  <si>
-    <t>Verify that long message field can take more than 255 characters as input.</t>
-  </si>
-  <si>
-    <t>Verify that Quantity input field accepts integer values from 1 to 5.</t>
-  </si>
-  <si>
     <t>Layout One</t>
   </si>
   <si>
-    <t>Verify 'OK' Button action for Sample Alert Button.</t>
-  </si>
-  <si>
-    <t>Verify 'Cancel' Button action for Sample Alert Button.</t>
-  </si>
-  <si>
-    <t>Verify that the image is fetched to the webpage.</t>
-  </si>
-  <si>
-    <t>Verify sample Double Click functionality.</t>
-  </si>
-  <si>
-    <t>Verify image drag and drop functionality into specific box.</t>
-  </si>
-  <si>
     <t>Layout Two</t>
   </si>
   <si>
-    <t>Verify that invalid credentials prevent login and refreshes page.</t>
-  </si>
-  <si>
-    <t>Verify that login page takes Username and Password as input.</t>
-  </si>
-  <si>
-    <t>Verify Login functionality with valid credentials.</t>
-  </si>
-  <si>
-    <t>Verify that successful login loads a new page.</t>
-  </si>
-  <si>
-    <t>Verify that clicking "here" link routes back to homepage with an empty form.</t>
-  </si>
-  <si>
     <t>TC_026</t>
   </si>
   <si>
@@ -210,43 +138,133 @@
     <t>Layout Three</t>
   </si>
   <si>
-    <t>Verify that Date is shown correctly in table description.</t>
-  </si>
-  <si>
-    <t>Verify that Sample Table shows correct data.</t>
-  </si>
-  <si>
     <t>TC_030</t>
   </si>
   <si>
-    <t>Verify that an option can be selected from dropdown.</t>
-  </si>
-  <si>
-    <t>Verify color picking by HEX input.</t>
-  </si>
-  <si>
-    <t>Verify random color pick functionality.</t>
-  </si>
-  <si>
-    <t>Verify that range slider value is set to 50 by default.</t>
-  </si>
-  <si>
     <t>TC_031</t>
   </si>
   <si>
     <t>TC_032</t>
   </si>
   <si>
-    <t>Verify that 'Submit' button click loads a new google search tab.</t>
-  </si>
-  <si>
-    <t>Verify that "Home" button in navbar routes to homepage upon clicking.</t>
-  </si>
-  <si>
     <t>TC_033</t>
   </si>
   <si>
-    <t>Verify that "Contact" button in navbar routes to contacts page upon clicking.</t>
+    <t>Verify OK Button action for Sample Alert Button</t>
+  </si>
+  <si>
+    <t>Verify that the image is fetched to the webpage</t>
+  </si>
+  <si>
+    <t>Verify sample Double Click functionality</t>
+  </si>
+  <si>
+    <t>Validate image drag and drop functionality into specific box</t>
+  </si>
+  <si>
+    <t>Verify that login section takes Username and Password as input</t>
+  </si>
+  <si>
+    <t>Verify Successful Login with valid credentials</t>
+  </si>
+  <si>
+    <t>Validate that invalid credentials prevent login and refreshes page</t>
+  </si>
+  <si>
+    <t>Verify that successful login loads a new page</t>
+  </si>
+  <si>
+    <t>Verify that clicking "here" link redirects to homepage with an empty form</t>
+  </si>
+  <si>
+    <t>Verify that the form takes Firstname and Lastname as input</t>
+  </si>
+  <si>
+    <t>Validate radio button functionality for gender selection</t>
+  </si>
+  <si>
+    <t>Verify that only one gender can be selected at a time from gender options</t>
+  </si>
+  <si>
+    <t>Validate that "Option" dropdown loads valid options</t>
+  </si>
+  <si>
+    <t>Verify that an option can be selected from dropdown</t>
+  </si>
+  <si>
+    <t>Verify Checkbox functionality for applicable Options</t>
+  </si>
+  <si>
+    <t>Verify that multiple options can be checked for applicable Options</t>
+  </si>
+  <si>
+    <t>Verify that datalist input dropdown shows valid suggestions</t>
+  </si>
+  <si>
+    <t>Verify that partially given input is guessed correctly in Datalist</t>
+  </si>
+  <si>
+    <t>Validate color picking by HEX input</t>
+  </si>
+  <si>
+    <t>Validate that input RGB values are accepted for picking color</t>
+  </si>
+  <si>
+    <t>Validate Date picker functionality</t>
+  </si>
+  <si>
+    <t>Verify that range slider value is set to 50 by default</t>
+  </si>
+  <si>
+    <t>Validate that range slider accepts values from 0 to 100</t>
+  </si>
+  <si>
+    <t>Validate file upload functionality of the form</t>
+  </si>
+  <si>
+    <t>Validate that Quantity input field accepts integer values from 1 to 5</t>
+  </si>
+  <si>
+    <t>Validate that long message field can take more than 255 characters as input</t>
+  </si>
+  <si>
+    <t>Verify that clicking "Submit" button opens a new google search tab</t>
+  </si>
+  <si>
+    <t>Verify that "Home" button in navbar routes to homepage upon clicking</t>
+  </si>
+  <si>
+    <t>Verify that "Contact" button in navbar routes to contacts page upon clicking</t>
+  </si>
+  <si>
+    <t>Validate that Date is shown correctly in table description</t>
+  </si>
+  <si>
+    <t>Validate that table headers are correct</t>
+  </si>
+  <si>
+    <t>Validate that table contains exactly 6 rows of data</t>
+  </si>
+  <si>
+    <t>Validate that table contains exactly 5 columns</t>
+  </si>
+  <si>
+    <t>Validate that gender column only contains M, F or O</t>
+  </si>
+  <si>
+    <t>Validate that age column contains values within 25 to 30</t>
+  </si>
+  <si>
+    <t>Validate that all table rows match expected data</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>TC_036</t>
   </si>
 </sst>
 </file>
@@ -317,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,6 +350,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -648,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261807F-B52F-4FBE-B8CB-0ECB17D7A45C}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,281 +692,305 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
+      <c r="B33" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>57</v>
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case - Try Testing This.xlsx
+++ b/Test Case - Try Testing This.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\Cypress\CypressProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845D080-2BD0-4412-BE79-9E828360C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CD1170-D928-4F00-B4D1-B5BC8559CF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{415DAA5F-16FF-4E03-9D24-C543D875EBD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{415DAA5F-16FF-4E03-9D24-C543D875EBD1}"/>
   </bookViews>
   <sheets>
     <sheet name="elements.cy.js" sheetId="1" r:id="rId1"/>
+    <sheet name="e2eJourneys.cy.js" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Test Case No.</t>
   </si>
@@ -265,6 +266,24 @@
   </si>
   <si>
     <t>TC_036</t>
+  </si>
+  <si>
+    <t>Verify that the characters entered into the Password field are masked</t>
+  </si>
+  <si>
+    <t>Verify that alert popup appears when invalid datalist value is entered</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>Verify successful form submission journey</t>
+  </si>
+  <si>
+    <t>Validate successful login journey</t>
   </si>
 </sst>
 </file>
@@ -335,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,9 +369,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -669,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261807F-B52F-4FBE-B8CB-0ECB17D7A45C}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +715,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -740,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,20 +780,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,15 +801,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>49</v>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +873,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +929,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +937,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,28 +945,28 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>33</v>
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>68</v>
+      <c r="B35" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +974,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,15 +982,15 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>71</v>
+      <c r="B38" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +998,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,6 +1006,22 @@
         <v>76</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -998,4 +1030,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAECCABE-6253-488A-B46C-D1E9FDF94C04}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>